--- a/data/pca/factorExposure/factorExposure_2012-02-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01726417752402953</v>
+        <v>0.01656673649128849</v>
       </c>
       <c r="C2">
-        <v>0.03165358841933349</v>
+        <v>0.02632389326973041</v>
       </c>
       <c r="D2">
-        <v>-0.0139874927428104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0127366491637397</v>
+      </c>
+      <c r="E2">
+        <v>-0.01298835347897633</v>
+      </c>
+      <c r="F2">
+        <v>0.01521467052462712</v>
+      </c>
+      <c r="G2">
+        <v>0.01059638080226866</v>
+      </c>
+      <c r="H2">
+        <v>-0.05026797816497743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07409951762821806</v>
+        <v>0.08820419844323431</v>
       </c>
       <c r="C4">
-        <v>0.0536749439064978</v>
+        <v>0.04151090331578634</v>
       </c>
       <c r="D4">
-        <v>-0.08041354067853011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06502696837559618</v>
+      </c>
+      <c r="E4">
+        <v>-0.009064183423431781</v>
+      </c>
+      <c r="F4">
+        <v>0.03656605991268431</v>
+      </c>
+      <c r="G4">
+        <v>0.002725139846079176</v>
+      </c>
+      <c r="H4">
+        <v>0.03891864625148856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1096467703650816</v>
+        <v>0.1195468804160698</v>
       </c>
       <c r="C6">
-        <v>0.05101395651129027</v>
+        <v>0.03515125140983377</v>
       </c>
       <c r="D6">
-        <v>-0.003111759829098914</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0130604183847763</v>
+      </c>
+      <c r="E6">
+        <v>0.02057724078252817</v>
+      </c>
+      <c r="F6">
+        <v>0.05461628856262984</v>
+      </c>
+      <c r="G6">
+        <v>0.03683392186235349</v>
+      </c>
+      <c r="H6">
+        <v>-0.1137724852667523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0525135183947948</v>
+        <v>0.06436963084253403</v>
       </c>
       <c r="C7">
-        <v>0.02398841708510411</v>
+        <v>0.01524936133475865</v>
       </c>
       <c r="D7">
-        <v>-0.04350023794434767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0455969866944848</v>
+      </c>
+      <c r="E7">
+        <v>-0.03651104886998589</v>
+      </c>
+      <c r="F7">
+        <v>0.03831085115819455</v>
+      </c>
+      <c r="G7">
+        <v>-0.03700611868087631</v>
+      </c>
+      <c r="H7">
+        <v>0.007538959756133342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0400091054745636</v>
+        <v>0.04159194537546417</v>
       </c>
       <c r="C8">
-        <v>0.01474317957409755</v>
+        <v>0.01085462950393508</v>
       </c>
       <c r="D8">
-        <v>-0.06337274112981042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02594383757658407</v>
+      </c>
+      <c r="E8">
+        <v>-0.02103537003464804</v>
+      </c>
+      <c r="F8">
+        <v>0.05781261361353039</v>
+      </c>
+      <c r="G8">
+        <v>0.05555867246306553</v>
+      </c>
+      <c r="H8">
+        <v>-0.007482028506400641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06910506455912445</v>
+        <v>0.07973367389293558</v>
       </c>
       <c r="C9">
-        <v>0.04070556370496997</v>
+        <v>0.02874154509730378</v>
       </c>
       <c r="D9">
-        <v>-0.07082126404715854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06257045455562793</v>
+      </c>
+      <c r="E9">
+        <v>-0.02895929661310131</v>
+      </c>
+      <c r="F9">
+        <v>0.03551417120782518</v>
+      </c>
+      <c r="G9">
+        <v>0.008826185591420389</v>
+      </c>
+      <c r="H9">
+        <v>0.04948392912885963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03097574546466434</v>
+        <v>0.03430611568287529</v>
       </c>
       <c r="C10">
-        <v>0.0246565657549884</v>
+        <v>0.04179048098218687</v>
       </c>
       <c r="D10">
-        <v>0.1677059032080799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1695184909525629</v>
+      </c>
+      <c r="E10">
+        <v>-0.03778720589464429</v>
+      </c>
+      <c r="F10">
+        <v>0.05043746335874967</v>
+      </c>
+      <c r="G10">
+        <v>-0.02331182765254245</v>
+      </c>
+      <c r="H10">
+        <v>-0.03316174411771811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07306711613566062</v>
+        <v>0.07748610789581931</v>
       </c>
       <c r="C11">
-        <v>0.04401998693155906</v>
+        <v>0.02641083650062351</v>
       </c>
       <c r="D11">
-        <v>-0.05873461987688236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06269091441956952</v>
+      </c>
+      <c r="E11">
+        <v>0.004974424457200083</v>
+      </c>
+      <c r="F11">
+        <v>0.0291413306395936</v>
+      </c>
+      <c r="G11">
+        <v>0.001491746652288347</v>
+      </c>
+      <c r="H11">
+        <v>0.08628259843446405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06065464277150702</v>
+        <v>0.06915307160295092</v>
       </c>
       <c r="C12">
-        <v>0.05176676730304797</v>
+        <v>0.03737521900470336</v>
       </c>
       <c r="D12">
-        <v>-0.04891945078583753</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04913425788911704</v>
+      </c>
+      <c r="E12">
+        <v>-0.01259699300960485</v>
+      </c>
+      <c r="F12">
+        <v>0.02142772699334226</v>
+      </c>
+      <c r="G12">
+        <v>0.002450087505815194</v>
+      </c>
+      <c r="H12">
+        <v>0.0414867316357018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06223845978493155</v>
+        <v>0.06603839012552873</v>
       </c>
       <c r="C13">
-        <v>0.03349895872170357</v>
+        <v>0.02070344255232666</v>
       </c>
       <c r="D13">
-        <v>-0.06284250757049964</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04262763081240267</v>
+      </c>
+      <c r="E13">
+        <v>-0.01492726825077706</v>
+      </c>
+      <c r="F13">
+        <v>0.01206579785792187</v>
+      </c>
+      <c r="G13">
+        <v>-0.00842989771092768</v>
+      </c>
+      <c r="H13">
+        <v>0.04874642790236047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0330627143776838</v>
+        <v>0.04046068100976583</v>
       </c>
       <c r="C14">
-        <v>0.03062437172633636</v>
+        <v>0.02840074995954758</v>
       </c>
       <c r="D14">
-        <v>-0.004727568288963859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01011683101488659</v>
+      </c>
+      <c r="E14">
+        <v>-0.03186666674847814</v>
+      </c>
+      <c r="F14">
+        <v>0.01450021057258935</v>
+      </c>
+      <c r="G14">
+        <v>0.007996691137656177</v>
+      </c>
+      <c r="H14">
+        <v>0.06057395825883967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04075493247139925</v>
+        <v>0.04047264466624104</v>
       </c>
       <c r="C15">
-        <v>0.008777140842545526</v>
+        <v>0.003123853209205308</v>
       </c>
       <c r="D15">
-        <v>-0.01940292045025481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.005375690738010157</v>
+      </c>
+      <c r="E15">
+        <v>-0.03512176845316145</v>
+      </c>
+      <c r="F15">
+        <v>-4.309654267824281e-05</v>
+      </c>
+      <c r="G15">
+        <v>0.02410703386142455</v>
+      </c>
+      <c r="H15">
+        <v>0.03540619835353519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06186446104930272</v>
+        <v>0.071624535055085</v>
       </c>
       <c r="C16">
-        <v>0.04091533025759519</v>
+        <v>0.02807650874667222</v>
       </c>
       <c r="D16">
-        <v>-0.04790049938291428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06073244850222319</v>
+      </c>
+      <c r="E16">
+        <v>-0.003443989143976621</v>
+      </c>
+      <c r="F16">
+        <v>0.02728913518415551</v>
+      </c>
+      <c r="G16">
+        <v>-0.002630590422638252</v>
+      </c>
+      <c r="H16">
+        <v>0.05430108299810849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06235881232295028</v>
+        <v>0.06331108689204568</v>
       </c>
       <c r="C20">
-        <v>0.02437576977974002</v>
+        <v>0.0103485131991534</v>
       </c>
       <c r="D20">
-        <v>-0.0522274672322247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03901846260893643</v>
+      </c>
+      <c r="E20">
+        <v>-0.01752465526577476</v>
+      </c>
+      <c r="F20">
+        <v>0.02654299127232166</v>
+      </c>
+      <c r="G20">
+        <v>0.01512969952862032</v>
+      </c>
+      <c r="H20">
+        <v>0.04637797392010474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02612446048991102</v>
+        <v>0.02628917060912167</v>
       </c>
       <c r="C21">
-        <v>-0.002876828407616274</v>
+        <v>-0.009530467336169725</v>
       </c>
       <c r="D21">
-        <v>-0.02887217550688866</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02483580382232189</v>
+      </c>
+      <c r="E21">
+        <v>-0.04501638627247577</v>
+      </c>
+      <c r="F21">
+        <v>-0.01257000266088168</v>
+      </c>
+      <c r="G21">
+        <v>0.009794282882497231</v>
+      </c>
+      <c r="H21">
+        <v>-0.05296977798218235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07889302257226376</v>
+        <v>0.0730747382562953</v>
       </c>
       <c r="C22">
-        <v>0.06042529922279858</v>
+        <v>0.03901414238163384</v>
       </c>
       <c r="D22">
-        <v>-0.1216423424964749</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.08339233917429564</v>
+      </c>
+      <c r="E22">
+        <v>-0.6005596702900795</v>
+      </c>
+      <c r="F22">
+        <v>-0.153574429611459</v>
+      </c>
+      <c r="G22">
+        <v>-0.07174067616214615</v>
+      </c>
+      <c r="H22">
+        <v>-0.1590617030502013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07983510404106843</v>
+        <v>0.07381460725379552</v>
       </c>
       <c r="C23">
-        <v>0.05913569570372801</v>
+        <v>0.03745802082770676</v>
       </c>
       <c r="D23">
-        <v>-0.1231988377118983</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08434069524587071</v>
+      </c>
+      <c r="E23">
+        <v>-0.5998422141843889</v>
+      </c>
+      <c r="F23">
+        <v>-0.1526021897149045</v>
+      </c>
+      <c r="G23">
+        <v>-0.070494481356509</v>
+      </c>
+      <c r="H23">
+        <v>-0.154714128247627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07435908232185022</v>
+        <v>0.08084734478104218</v>
       </c>
       <c r="C24">
-        <v>0.05110097003130235</v>
+        <v>0.03425751417339707</v>
       </c>
       <c r="D24">
-        <v>-0.0606363932265362</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06089845523516662</v>
+      </c>
+      <c r="E24">
+        <v>-0.01724146556729731</v>
+      </c>
+      <c r="F24">
+        <v>0.03666123611494426</v>
+      </c>
+      <c r="G24">
+        <v>0.01351637345089318</v>
+      </c>
+      <c r="H24">
+        <v>0.04950769731667387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07425860388157415</v>
+        <v>0.07913010311826374</v>
       </c>
       <c r="C25">
-        <v>0.05455241546385641</v>
+        <v>0.03734951087198001</v>
       </c>
       <c r="D25">
-        <v>-0.06709663326840491</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05275261613577047</v>
+      </c>
+      <c r="E25">
+        <v>-0.0193307222620866</v>
+      </c>
+      <c r="F25">
+        <v>0.02729960343973821</v>
+      </c>
+      <c r="G25">
+        <v>0.02084812864091632</v>
+      </c>
+      <c r="H25">
+        <v>0.05393798540122483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04613873207821802</v>
+        <v>0.04775714970271993</v>
       </c>
       <c r="C26">
-        <v>0.009413718608021022</v>
+        <v>0.002195785239019397</v>
       </c>
       <c r="D26">
-        <v>-0.01281613739853957</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01740182081848261</v>
+      </c>
+      <c r="E26">
+        <v>-0.04467284053331722</v>
+      </c>
+      <c r="F26">
+        <v>0.02865411577086914</v>
+      </c>
+      <c r="G26">
+        <v>-0.01151992034396989</v>
+      </c>
+      <c r="H26">
+        <v>0.05392323733278861</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05490899854774264</v>
+        <v>0.0622398591707719</v>
       </c>
       <c r="C28">
-        <v>0.06733169968371633</v>
+        <v>0.09046818947211865</v>
       </c>
       <c r="D28">
-        <v>0.3106711703496609</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.305519180703322</v>
+      </c>
+      <c r="E28">
+        <v>-0.03213119053234187</v>
+      </c>
+      <c r="F28">
+        <v>0.05595905738180513</v>
+      </c>
+      <c r="G28">
+        <v>0.03293074089628025</v>
+      </c>
+      <c r="H28">
+        <v>-0.0477322960567425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04178392006120863</v>
+        <v>0.04888005752729326</v>
       </c>
       <c r="C29">
-        <v>0.02879183789643787</v>
+        <v>0.02597061199287065</v>
       </c>
       <c r="D29">
-        <v>-0.01098030874986874</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.008733533064745579</v>
+      </c>
+      <c r="E29">
+        <v>-0.06104466147920039</v>
+      </c>
+      <c r="F29">
+        <v>0.01130528129358694</v>
+      </c>
+      <c r="G29">
+        <v>-0.00810777106589986</v>
+      </c>
+      <c r="H29">
+        <v>0.07440562005820139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1276469210297256</v>
+        <v>0.1306815604047668</v>
       </c>
       <c r="C30">
-        <v>0.08623704806314814</v>
+        <v>0.06135840595857932</v>
       </c>
       <c r="D30">
-        <v>-0.09892153455091134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06897905907102062</v>
+      </c>
+      <c r="E30">
+        <v>-0.08074481287319427</v>
+      </c>
+      <c r="F30">
+        <v>-0.004104711253734161</v>
+      </c>
+      <c r="G30">
+        <v>0.08251132165427086</v>
+      </c>
+      <c r="H30">
+        <v>-0.05280951666841749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04448488250407642</v>
+        <v>0.04911566163574183</v>
       </c>
       <c r="C31">
-        <v>0.02218165005324148</v>
+        <v>0.01405202872337154</v>
       </c>
       <c r="D31">
-        <v>-0.02326176052495234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02908190004327319</v>
+      </c>
+      <c r="E31">
+        <v>-0.02398163354761141</v>
+      </c>
+      <c r="F31">
+        <v>0.01211599280337418</v>
+      </c>
+      <c r="G31">
+        <v>-0.02534190865959115</v>
+      </c>
+      <c r="H31">
+        <v>0.06433840568941368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03883835543697496</v>
+        <v>0.03934811467050738</v>
       </c>
       <c r="C32">
-        <v>0.02667272867800785</v>
+        <v>0.02207835030530619</v>
       </c>
       <c r="D32">
-        <v>-0.02407966802168012</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01165677331870431</v>
+      </c>
+      <c r="E32">
+        <v>-0.05281794359434087</v>
+      </c>
+      <c r="F32">
+        <v>-0.005742001471316353</v>
+      </c>
+      <c r="G32">
+        <v>0.02468093365915355</v>
+      </c>
+      <c r="H32">
+        <v>0.06973855654836414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08472190387658721</v>
+        <v>0.09650183457145582</v>
       </c>
       <c r="C33">
-        <v>0.04030038217870947</v>
+        <v>0.02637147896302246</v>
       </c>
       <c r="D33">
-        <v>-0.06122482709151959</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04672963439298881</v>
+      </c>
+      <c r="E33">
+        <v>-0.01557747286456649</v>
+      </c>
+      <c r="F33">
+        <v>0.007258963972189369</v>
+      </c>
+      <c r="G33">
+        <v>-0.00837416858091421</v>
+      </c>
+      <c r="H33">
+        <v>0.05253403883769694</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05876117493954842</v>
+        <v>0.0639820545821473</v>
       </c>
       <c r="C34">
-        <v>0.02583017746349847</v>
+        <v>0.01223748881821603</v>
       </c>
       <c r="D34">
-        <v>-0.05763032265742021</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0507742375716107</v>
+      </c>
+      <c r="E34">
+        <v>-0.007141459049431012</v>
+      </c>
+      <c r="F34">
+        <v>0.01884254816763846</v>
+      </c>
+      <c r="G34">
+        <v>-0.000620950170047893</v>
+      </c>
+      <c r="H34">
+        <v>0.05970937313271434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03746105621080596</v>
+        <v>0.0394343319749302</v>
       </c>
       <c r="C35">
-        <v>0.007411729510164932</v>
+        <v>0.002794950320956723</v>
       </c>
       <c r="D35">
-        <v>-0.01497299848142046</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01024326369788023</v>
+      </c>
+      <c r="E35">
+        <v>-0.02077418249992373</v>
+      </c>
+      <c r="F35">
+        <v>-0.01436877883299062</v>
+      </c>
+      <c r="G35">
+        <v>-0.007524875800620753</v>
+      </c>
+      <c r="H35">
+        <v>0.01673182270562143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02270394449839418</v>
+        <v>0.02906442049732698</v>
       </c>
       <c r="C36">
-        <v>0.01717866396752041</v>
+        <v>0.01495181648418237</v>
       </c>
       <c r="D36">
-        <v>-0.02464252621358855</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01724512792616357</v>
+      </c>
+      <c r="E36">
+        <v>-0.0318322015001577</v>
+      </c>
+      <c r="F36">
+        <v>0.02201804255747709</v>
+      </c>
+      <c r="G36">
+        <v>-0.0098532834747442</v>
+      </c>
+      <c r="H36">
+        <v>0.04498206254883672</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04215225328564066</v>
+        <v>0.04483747777149149</v>
       </c>
       <c r="C38">
-        <v>0.00138548627138317</v>
+        <v>-0.004090599960799374</v>
       </c>
       <c r="D38">
-        <v>-0.0169997505240737</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01753160904682927</v>
+      </c>
+      <c r="E38">
+        <v>-0.05144594685859275</v>
+      </c>
+      <c r="F38">
+        <v>-0.00519732207465534</v>
+      </c>
+      <c r="G38">
+        <v>0.008124019508515667</v>
+      </c>
+      <c r="H38">
+        <v>0.03601895066808378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09289609234778436</v>
+        <v>0.1024576867908531</v>
       </c>
       <c r="C39">
-        <v>0.07010494422297224</v>
+        <v>0.05042485352892931</v>
       </c>
       <c r="D39">
-        <v>-0.05403434542687287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06203093990744047</v>
+      </c>
+      <c r="E39">
+        <v>-0.006086412147681226</v>
+      </c>
+      <c r="F39">
+        <v>-0.001545033211915374</v>
+      </c>
+      <c r="G39">
+        <v>0.03851939540734346</v>
+      </c>
+      <c r="H39">
+        <v>0.04581041939834817</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07672370227065504</v>
+        <v>0.07052472799776642</v>
       </c>
       <c r="C40">
-        <v>0.03193148120578099</v>
+        <v>0.01321426879160827</v>
       </c>
       <c r="D40">
-        <v>-0.006164451626834531</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01516156146540146</v>
+      </c>
+      <c r="E40">
+        <v>-0.02816821524022526</v>
+      </c>
+      <c r="F40">
+        <v>-0.04985489341673092</v>
+      </c>
+      <c r="G40">
+        <v>0.03766878343644146</v>
+      </c>
+      <c r="H40">
+        <v>-0.1018911517764874</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04261551857780832</v>
+        <v>0.04455823869703601</v>
       </c>
       <c r="C41">
-        <v>0.004945293224784053</v>
+        <v>-0.003156447252977552</v>
       </c>
       <c r="D41">
-        <v>-0.03239037878760562</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03313528597208136</v>
+      </c>
+      <c r="E41">
+        <v>-0.0006871526539325769</v>
+      </c>
+      <c r="F41">
+        <v>-0.01625334368063179</v>
+      </c>
+      <c r="G41">
+        <v>0.0075581437034321</v>
+      </c>
+      <c r="H41">
+        <v>0.03427555143942786</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05096881933596244</v>
+        <v>0.05922783525812142</v>
       </c>
       <c r="C43">
-        <v>0.02533723189307301</v>
+        <v>0.01792053576230874</v>
       </c>
       <c r="D43">
-        <v>-0.01620585095552659</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02572790970923837</v>
+      </c>
+      <c r="E43">
+        <v>-0.02104452018692357</v>
+      </c>
+      <c r="F43">
+        <v>0.01185266424692565</v>
+      </c>
+      <c r="G43">
+        <v>-0.01856375494692943</v>
+      </c>
+      <c r="H43">
+        <v>0.05883090194148606</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0979212029955962</v>
+        <v>0.09829578751904121</v>
       </c>
       <c r="C44">
-        <v>0.08688688189132292</v>
+        <v>0.06363031647763318</v>
       </c>
       <c r="D44">
-        <v>-0.07655064710125931</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05611466470963136</v>
+      </c>
+      <c r="E44">
+        <v>-0.08088924253159255</v>
+      </c>
+      <c r="F44">
+        <v>0.06671413844261545</v>
+      </c>
+      <c r="G44">
+        <v>0.02719169771756446</v>
+      </c>
+      <c r="H44">
+        <v>0.02269558747811894</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02582543230573678</v>
+        <v>0.03435363685153299</v>
       </c>
       <c r="C46">
-        <v>0.01410363511706546</v>
+        <v>0.01099389156741751</v>
       </c>
       <c r="D46">
-        <v>-0.02447612374270003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03371058850413788</v>
+      </c>
+      <c r="E46">
+        <v>-0.03459550968165372</v>
+      </c>
+      <c r="F46">
+        <v>0.01611523989305064</v>
+      </c>
+      <c r="G46">
+        <v>-0.00870465327288782</v>
+      </c>
+      <c r="H46">
+        <v>0.03347566598651937</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03109931558139481</v>
+        <v>0.03852303078115699</v>
       </c>
       <c r="C47">
-        <v>0.02481350809658044</v>
+        <v>0.02135750559491884</v>
       </c>
       <c r="D47">
-        <v>-0.009152269754049367</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.008461336788627521</v>
+      </c>
+      <c r="E47">
+        <v>-0.04643976817403833</v>
+      </c>
+      <c r="F47">
+        <v>0.01046564278515318</v>
+      </c>
+      <c r="G47">
+        <v>-0.04344390766128421</v>
+      </c>
+      <c r="H47">
+        <v>0.02673345500747691</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03378250979497584</v>
+        <v>0.03833461212058849</v>
       </c>
       <c r="C48">
-        <v>0.01777614017739459</v>
+        <v>0.01095786020431597</v>
       </c>
       <c r="D48">
-        <v>-0.03249813436270978</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02050663846902786</v>
+      </c>
+      <c r="E48">
+        <v>-0.04006468212815698</v>
+      </c>
+      <c r="F48">
+        <v>0.00747139376560366</v>
+      </c>
+      <c r="G48">
+        <v>0.01249172268249406</v>
+      </c>
+      <c r="H48">
+        <v>0.04006641861699393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1622005510716122</v>
+        <v>0.1896268587557532</v>
       </c>
       <c r="C49">
-        <v>0.04936958817240237</v>
+        <v>0.0304991048311763</v>
       </c>
       <c r="D49">
-        <v>0.007806389220426936</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02892696225563306</v>
+      </c>
+      <c r="E49">
+        <v>0.1571840070063155</v>
+      </c>
+      <c r="F49">
+        <v>0.05652311176493762</v>
+      </c>
+      <c r="G49">
+        <v>-0.06165393574377243</v>
+      </c>
+      <c r="H49">
+        <v>-0.2216240436788272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04015816251459694</v>
+        <v>0.04628620319358012</v>
       </c>
       <c r="C50">
-        <v>0.02011289034010663</v>
+        <v>0.01416417491399553</v>
       </c>
       <c r="D50">
-        <v>-0.03996362714230463</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03291510213749276</v>
+      </c>
+      <c r="E50">
+        <v>-0.04296858741854839</v>
+      </c>
+      <c r="F50">
+        <v>0.01451645422899072</v>
+      </c>
+      <c r="G50">
+        <v>-0.02207834487254166</v>
+      </c>
+      <c r="H50">
+        <v>0.06677927496898395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02827383260414935</v>
+        <v>0.03007877379153912</v>
       </c>
       <c r="C51">
-        <v>0.01062687124513733</v>
+        <v>0.004453685510583819</v>
       </c>
       <c r="D51">
-        <v>-0.01053540338567396</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01204391267895647</v>
+      </c>
+      <c r="E51">
+        <v>-0.012716637083869</v>
+      </c>
+      <c r="F51">
+        <v>0.01589266292949883</v>
+      </c>
+      <c r="G51">
+        <v>-0.0007519393713492089</v>
+      </c>
+      <c r="H51">
+        <v>-0.002394543250731144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1550906825015606</v>
+        <v>0.1631734305467735</v>
       </c>
       <c r="C53">
-        <v>0.07152531711561246</v>
+        <v>0.04973271769786071</v>
       </c>
       <c r="D53">
-        <v>-0.008914370728783609</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01882596823443831</v>
+      </c>
+      <c r="E53">
+        <v>0.03103006619809317</v>
+      </c>
+      <c r="F53">
+        <v>0.01426214265558592</v>
+      </c>
+      <c r="G53">
+        <v>-0.02190551100843812</v>
+      </c>
+      <c r="H53">
+        <v>0.1796210121415645</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05794057434952362</v>
+        <v>0.05862396354581358</v>
       </c>
       <c r="C54">
-        <v>0.02293857391522601</v>
+        <v>0.01314004426560993</v>
       </c>
       <c r="D54">
-        <v>-0.02086519815263533</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01476466215299605</v>
+      </c>
+      <c r="E54">
+        <v>-0.04675904591274933</v>
+      </c>
+      <c r="F54">
+        <v>0.006623593000012733</v>
+      </c>
+      <c r="G54">
+        <v>0.01403920717388361</v>
+      </c>
+      <c r="H54">
+        <v>0.0494664412789174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1000313834404987</v>
+        <v>0.1040754323833043</v>
       </c>
       <c r="C55">
-        <v>0.04883642100521318</v>
+        <v>0.03335438551388118</v>
       </c>
       <c r="D55">
-        <v>-0.02022725504695113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02339984948087669</v>
+      </c>
+      <c r="E55">
+        <v>-0.009401515320324436</v>
+      </c>
+      <c r="F55">
+        <v>0.01300861541691304</v>
+      </c>
+      <c r="G55">
+        <v>-0.01481167651625159</v>
+      </c>
+      <c r="H55">
+        <v>0.1574962009430903</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1517075499715654</v>
+        <v>0.1618295937879715</v>
       </c>
       <c r="C56">
-        <v>0.08370412630882228</v>
+        <v>0.06064598844323519</v>
       </c>
       <c r="D56">
-        <v>-0.01763453270781508</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02357098979812146</v>
+      </c>
+      <c r="E56">
+        <v>0.02263304240465038</v>
+      </c>
+      <c r="F56">
+        <v>0.03119298779042314</v>
+      </c>
+      <c r="G56">
+        <v>-0.03798262064445465</v>
+      </c>
+      <c r="H56">
+        <v>0.1804799157900073</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1306068711905951</v>
+        <v>0.1009279571300526</v>
       </c>
       <c r="C58">
-        <v>-0.003392145760315337</v>
+        <v>-0.04341849044847541</v>
       </c>
       <c r="D58">
-        <v>-0.03260633724412143</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03352289979092783</v>
+      </c>
+      <c r="E58">
+        <v>-0.143515101683309</v>
+      </c>
+      <c r="F58">
+        <v>-0.001733943285496114</v>
+      </c>
+      <c r="G58">
+        <v>-0.01774435568677037</v>
+      </c>
+      <c r="H58">
+        <v>-0.2216736241424353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1239888082263171</v>
+        <v>0.1376529097167387</v>
       </c>
       <c r="C59">
-        <v>0.07362603937811778</v>
+        <v>0.09669846786602429</v>
       </c>
       <c r="D59">
-        <v>0.3689137724538267</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.362879094220275</v>
+      </c>
+      <c r="E59">
+        <v>-0.02621061045286213</v>
+      </c>
+      <c r="F59">
+        <v>0.01319046007102679</v>
+      </c>
+      <c r="G59">
+        <v>-0.0163646104724184</v>
+      </c>
+      <c r="H59">
+        <v>-0.0007389262575609861</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2071791427066723</v>
+        <v>0.234387623443976</v>
       </c>
       <c r="C60">
-        <v>0.08963020282425087</v>
+        <v>0.06174903895871005</v>
       </c>
       <c r="D60">
-        <v>-0.01992690137993728</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04401781393443113</v>
+      </c>
+      <c r="E60">
+        <v>0.1012346882907151</v>
+      </c>
+      <c r="F60">
+        <v>0.05412927074883984</v>
+      </c>
+      <c r="G60">
+        <v>0.02215031074416206</v>
+      </c>
+      <c r="H60">
+        <v>-0.1402839322321038</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08331242639544252</v>
+        <v>0.08975125143324544</v>
       </c>
       <c r="C61">
-        <v>0.05017025481465297</v>
+        <v>0.03628864481176018</v>
       </c>
       <c r="D61">
-        <v>-0.04443153905770839</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04256024344475533</v>
+      </c>
+      <c r="E61">
+        <v>-0.002498529464666048</v>
+      </c>
+      <c r="F61">
+        <v>0.001977643877528988</v>
+      </c>
+      <c r="G61">
+        <v>0.0006381122279439395</v>
+      </c>
+      <c r="H61">
+        <v>0.06062996600063277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.131714703414588</v>
+        <v>0.1389530881329098</v>
       </c>
       <c r="C62">
-        <v>0.0587948962785213</v>
+        <v>0.03647857073566834</v>
       </c>
       <c r="D62">
-        <v>-0.01636126237048827</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03128369877857182</v>
+      </c>
+      <c r="E62">
+        <v>0.059350447793493</v>
+      </c>
+      <c r="F62">
+        <v>0.009542073881719185</v>
+      </c>
+      <c r="G62">
+        <v>0.007252033055493589</v>
+      </c>
+      <c r="H62">
+        <v>0.1810112680489945</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0520915458209078</v>
+        <v>0.05151517541573195</v>
       </c>
       <c r="C63">
-        <v>0.02287308502858661</v>
+        <v>0.01281450052496266</v>
       </c>
       <c r="D63">
-        <v>-0.02340678192142839</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02106538823756161</v>
+      </c>
+      <c r="E63">
+        <v>-0.04954323879849881</v>
+      </c>
+      <c r="F63">
+        <v>-0.006075196790380914</v>
+      </c>
+      <c r="G63">
+        <v>0.02016028043085633</v>
+      </c>
+      <c r="H63">
+        <v>0.05200389247118732</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1036485936107958</v>
+        <v>0.1078551644774191</v>
       </c>
       <c r="C64">
-        <v>0.0309907394466931</v>
+        <v>0.01610518393081281</v>
       </c>
       <c r="D64">
-        <v>-0.04102141395984026</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03132233815397061</v>
+      </c>
+      <c r="E64">
+        <v>-0.03173186481280776</v>
+      </c>
+      <c r="F64">
+        <v>0.03985929437510052</v>
+      </c>
+      <c r="G64">
+        <v>0.04827433353789976</v>
+      </c>
+      <c r="H64">
+        <v>0.04439611054047217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1268881726504898</v>
+        <v>0.1269174131163947</v>
       </c>
       <c r="C65">
-        <v>0.05778696504332367</v>
+        <v>0.03982840958482495</v>
       </c>
       <c r="D65">
-        <v>0.007386731138904131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.008489895848250557</v>
+      </c>
+      <c r="E65">
+        <v>0.001411679759395064</v>
+      </c>
+      <c r="F65">
+        <v>0.05294574449643946</v>
+      </c>
+      <c r="G65">
+        <v>0.0619402741593538</v>
+      </c>
+      <c r="H65">
+        <v>-0.1435575350698693</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1476201609420409</v>
+        <v>0.154386601955357</v>
       </c>
       <c r="C66">
-        <v>0.06764109824751104</v>
+        <v>0.03953871908613624</v>
       </c>
       <c r="D66">
-        <v>-0.1067281791504748</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09675926564210052</v>
+      </c>
+      <c r="E66">
+        <v>0.02190580102855229</v>
+      </c>
+      <c r="F66">
+        <v>0.007262467351217931</v>
+      </c>
+      <c r="G66">
+        <v>0.0433130408121336</v>
+      </c>
+      <c r="H66">
+        <v>0.1126666454646845</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07509382147481443</v>
+        <v>0.08492671437834667</v>
       </c>
       <c r="C67">
-        <v>0.009164067918220754</v>
+        <v>0.0009251767270781137</v>
       </c>
       <c r="D67">
-        <v>-0.02028441296830046</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0288065750137</v>
+      </c>
+      <c r="E67">
+        <v>-0.01833144187660371</v>
+      </c>
+      <c r="F67">
+        <v>0.02061469629541029</v>
+      </c>
+      <c r="G67">
+        <v>-0.009132014285937776</v>
+      </c>
+      <c r="H67">
+        <v>0.03981455155856109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06037152431554504</v>
+        <v>0.0581868136392877</v>
       </c>
       <c r="C68">
-        <v>0.04764399695161518</v>
+        <v>0.06670544248198203</v>
       </c>
       <c r="D68">
-        <v>0.2547426271190517</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2677068880186452</v>
+      </c>
+      <c r="E68">
+        <v>-0.03942197606994445</v>
+      </c>
+      <c r="F68">
+        <v>0.01573611036117982</v>
+      </c>
+      <c r="G68">
+        <v>-0.01198138228728213</v>
+      </c>
+      <c r="H68">
+        <v>0.007426441330970942</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05201651312404689</v>
+        <v>0.05287767194204241</v>
       </c>
       <c r="C69">
-        <v>0.01560162860490625</v>
+        <v>0.005630567680370976</v>
       </c>
       <c r="D69">
-        <v>-0.02324727961503919</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01728391653378103</v>
+      </c>
+      <c r="E69">
+        <v>-0.02726479840417785</v>
+      </c>
+      <c r="F69">
+        <v>-0.008313290781697277</v>
+      </c>
+      <c r="G69">
+        <v>-0.02550624638620719</v>
+      </c>
+      <c r="H69">
+        <v>0.04808098336351339</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.003313851349873502</v>
+        <v>0.02605410351194617</v>
       </c>
       <c r="C70">
-        <v>-0.009347127496011333</v>
+        <v>-0.003788363776444581</v>
       </c>
       <c r="D70">
-        <v>0.005281829291480077</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.0002863638271263081</v>
+      </c>
+      <c r="E70">
+        <v>0.02284721224755706</v>
+      </c>
+      <c r="F70">
+        <v>0.009632903518083383</v>
+      </c>
+      <c r="G70">
+        <v>-0.02129750635991273</v>
+      </c>
+      <c r="H70">
+        <v>-0.02281356346792225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05934451457119626</v>
+        <v>0.06009769571808876</v>
       </c>
       <c r="C71">
-        <v>0.04677548535239066</v>
+        <v>0.0715968477422933</v>
       </c>
       <c r="D71">
-        <v>0.2928050768909358</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2933686516603589</v>
+      </c>
+      <c r="E71">
+        <v>-0.0347634796364403</v>
+      </c>
+      <c r="F71">
+        <v>0.0430780423425731</v>
+      </c>
+      <c r="G71">
+        <v>-0.001087517178714743</v>
+      </c>
+      <c r="H71">
+        <v>0.008965501350493796</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.142647836730858</v>
+        <v>0.1445702149008639</v>
       </c>
       <c r="C72">
-        <v>0.05855434657449218</v>
+        <v>0.03265438385518697</v>
       </c>
       <c r="D72">
-        <v>-0.004801796300514925</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0009887768217586919</v>
+      </c>
+      <c r="E72">
+        <v>0.08183269997694347</v>
+      </c>
+      <c r="F72">
+        <v>-0.1688260925171753</v>
+      </c>
+      <c r="G72">
+        <v>0.1178091599166899</v>
+      </c>
+      <c r="H72">
+        <v>0.01529538302256217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2854486531190665</v>
+        <v>0.2894265514610845</v>
       </c>
       <c r="C73">
-        <v>0.09471177309074191</v>
+        <v>0.03533030919849434</v>
       </c>
       <c r="D73">
-        <v>-0.04416015028358532</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09147371173815672</v>
+      </c>
+      <c r="E73">
+        <v>0.2211252406770866</v>
+      </c>
+      <c r="F73">
+        <v>0.09482053533003934</v>
+      </c>
+      <c r="G73">
+        <v>-0.1376541358780319</v>
+      </c>
+      <c r="H73">
+        <v>-0.5015376915208534</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08161843558972996</v>
+        <v>0.09166182395942982</v>
       </c>
       <c r="C74">
-        <v>0.07465514192008933</v>
+        <v>0.06010989103586949</v>
       </c>
       <c r="D74">
-        <v>-0.009483735013570126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03128078268486702</v>
+      </c>
+      <c r="E74">
+        <v>0.003274804761663313</v>
+      </c>
+      <c r="F74">
+        <v>0.0001403305426154109</v>
+      </c>
+      <c r="G74">
+        <v>-0.05392445037745267</v>
+      </c>
+      <c r="H74">
+        <v>0.1141879041656976</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09686595136962187</v>
+        <v>0.1017490436199102</v>
       </c>
       <c r="C75">
-        <v>0.04729625931281339</v>
+        <v>0.02643806150902988</v>
       </c>
       <c r="D75">
-        <v>-0.008393982574093749</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01514377171016676</v>
+      </c>
+      <c r="E75">
+        <v>-0.001766588745028243</v>
+      </c>
+      <c r="F75">
+        <v>0.02078370314548881</v>
+      </c>
+      <c r="G75">
+        <v>-0.0262441931923434</v>
+      </c>
+      <c r="H75">
+        <v>0.112627485282217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1323518325109925</v>
+        <v>0.1418400816897537</v>
       </c>
       <c r="C76">
-        <v>0.07881717636385957</v>
+        <v>0.05739520976110702</v>
       </c>
       <c r="D76">
-        <v>-0.04359998163463317</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0481487565565742</v>
+      </c>
+      <c r="E76">
+        <v>-0.01714761342323592</v>
+      </c>
+      <c r="F76">
+        <v>0.04553909574213792</v>
+      </c>
+      <c r="G76">
+        <v>-0.01576556294800898</v>
+      </c>
+      <c r="H76">
+        <v>0.2046377487109153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1175847636157745</v>
+        <v>0.1077383925312855</v>
       </c>
       <c r="C77">
-        <v>0.007742902692345737</v>
+        <v>-0.01775341839385595</v>
       </c>
       <c r="D77">
-        <v>-0.07526610272559844</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02821990376125995</v>
+      </c>
+      <c r="E77">
+        <v>-0.01996811895413115</v>
+      </c>
+      <c r="F77">
+        <v>0.09946680265159789</v>
+      </c>
+      <c r="G77">
+        <v>0.8924699311246773</v>
+      </c>
+      <c r="H77">
+        <v>-0.08712813886071437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1067108224264306</v>
+        <v>0.1449638272053623</v>
       </c>
       <c r="C78">
-        <v>0.03627225403978149</v>
+        <v>0.03129112535794099</v>
       </c>
       <c r="D78">
-        <v>-0.08446133944308627</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08161819642200836</v>
+      </c>
+      <c r="E78">
+        <v>-0.05542870307992826</v>
+      </c>
+      <c r="F78">
+        <v>0.05348124070168141</v>
+      </c>
+      <c r="G78">
+        <v>0.08599708563906221</v>
+      </c>
+      <c r="H78">
+        <v>-0.03429158769301439</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1485101680011255</v>
+        <v>0.1511227228777043</v>
       </c>
       <c r="C79">
-        <v>0.06649823557595311</v>
+        <v>0.03918293665988083</v>
       </c>
       <c r="D79">
-        <v>-0.02395432818041841</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02738904775192939</v>
+      </c>
+      <c r="E79">
+        <v>0.01709758745313152</v>
+      </c>
+      <c r="F79">
+        <v>0.0199527413198534</v>
+      </c>
+      <c r="G79">
+        <v>-0.0426142042702205</v>
+      </c>
+      <c r="H79">
+        <v>0.1642916728229715</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04208696848611099</v>
+        <v>0.04308661710517533</v>
       </c>
       <c r="C80">
-        <v>0.01937020029081532</v>
+        <v>0.01443304523180452</v>
       </c>
       <c r="D80">
-        <v>-0.02802540935279933</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01215904191578861</v>
+      </c>
+      <c r="E80">
+        <v>0.02981542472275738</v>
+      </c>
+      <c r="F80">
+        <v>0.008560817562100771</v>
+      </c>
+      <c r="G80">
+        <v>-0.02455224092569581</v>
+      </c>
+      <c r="H80">
+        <v>0.03498160884897331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1188678985228989</v>
+        <v>0.1206451499643956</v>
       </c>
       <c r="C81">
-        <v>0.05918721791480599</v>
+        <v>0.03680674371949445</v>
       </c>
       <c r="D81">
-        <v>-0.03215928083391209</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02481254497358536</v>
+      </c>
+      <c r="E81">
+        <v>-0.00876993265443996</v>
+      </c>
+      <c r="F81">
+        <v>0.01946406823654781</v>
+      </c>
+      <c r="G81">
+        <v>-0.06051946045654277</v>
+      </c>
+      <c r="H81">
+        <v>0.150775057849216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1298566508941837</v>
+        <v>0.1313465043520652</v>
       </c>
       <c r="C82">
-        <v>0.06957611513815967</v>
+        <v>0.04845722406515312</v>
       </c>
       <c r="D82">
-        <v>-0.01908513067302233</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02805789826671952</v>
+      </c>
+      <c r="E82">
+        <v>0.02011141605366133</v>
+      </c>
+      <c r="F82">
+        <v>0.04906096693709008</v>
+      </c>
+      <c r="G82">
+        <v>-0.05601430547163872</v>
+      </c>
+      <c r="H82">
+        <v>0.2160189540823905</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07364578465276168</v>
+        <v>0.08545300547320456</v>
       </c>
       <c r="C83">
-        <v>-0.01773177696739167</v>
+        <v>-0.02947344321153558</v>
       </c>
       <c r="D83">
-        <v>-0.02939266877549795</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0317430404566994</v>
+      </c>
+      <c r="E83">
+        <v>-0.02527811327471014</v>
+      </c>
+      <c r="F83">
+        <v>0.05941203147879225</v>
+      </c>
+      <c r="G83">
+        <v>-0.07790721730191497</v>
+      </c>
+      <c r="H83">
+        <v>-0.05925657053910498</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.0300406910119881</v>
+        <v>0.03747299675205445</v>
       </c>
       <c r="C84">
-        <v>0.02896121710006066</v>
+        <v>0.02300912055127312</v>
       </c>
       <c r="D84">
-        <v>-0.02588708465327865</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03268397053355354</v>
+      </c>
+      <c r="E84">
+        <v>-0.02991543730854305</v>
+      </c>
+      <c r="F84">
+        <v>-0.05022069427263866</v>
+      </c>
+      <c r="G84">
+        <v>-0.06613377536294048</v>
+      </c>
+      <c r="H84">
+        <v>0.001873779524679672</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1209368339338892</v>
+        <v>0.1222837399470184</v>
       </c>
       <c r="C85">
-        <v>0.04558578677435663</v>
+        <v>0.0242022683633667</v>
       </c>
       <c r="D85">
-        <v>-0.0243299088481337</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02330851882957453</v>
+      </c>
+      <c r="E85">
+        <v>-0.01803720758553936</v>
+      </c>
+      <c r="F85">
+        <v>0.04191584540800781</v>
+      </c>
+      <c r="G85">
+        <v>-0.04043039502438109</v>
+      </c>
+      <c r="H85">
+        <v>0.156151752068684</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05469303377334037</v>
+        <v>0.05852400997910345</v>
       </c>
       <c r="C86">
-        <v>0.02143802846022699</v>
+        <v>0.01138611095881184</v>
       </c>
       <c r="D86">
-        <v>-0.03424475483299881</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03178227796939279</v>
+      </c>
+      <c r="E86">
+        <v>-0.05615292147494708</v>
+      </c>
+      <c r="F86">
+        <v>0.02512222926945967</v>
+      </c>
+      <c r="G86">
+        <v>-0.0275828404664793</v>
+      </c>
+      <c r="H86">
+        <v>-0.01385087970977503</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1183254411199316</v>
+        <v>0.1227073671040241</v>
       </c>
       <c r="C87">
-        <v>0.0640218168288417</v>
+        <v>0.03448807541531169</v>
       </c>
       <c r="D87">
-        <v>-0.08130592993880177</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07338896457982537</v>
+      </c>
+      <c r="E87">
+        <v>-0.01864300982832965</v>
+      </c>
+      <c r="F87">
+        <v>0.01368092427830776</v>
+      </c>
+      <c r="G87">
+        <v>0.1348280346071747</v>
+      </c>
+      <c r="H87">
+        <v>-0.03103777652510738</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05331460719989263</v>
+        <v>0.06067730538520402</v>
       </c>
       <c r="C88">
-        <v>0.02865274768507318</v>
+        <v>0.02023519467330517</v>
       </c>
       <c r="D88">
-        <v>-0.02307921137835754</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0357676670235256</v>
+      </c>
+      <c r="E88">
+        <v>-0.0164804960956299</v>
+      </c>
+      <c r="F88">
+        <v>0.009123425832925722</v>
+      </c>
+      <c r="G88">
+        <v>0.002738780138026879</v>
+      </c>
+      <c r="H88">
+        <v>0.05382446804250609</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08974547013272506</v>
+        <v>0.09569502168215742</v>
       </c>
       <c r="C89">
-        <v>0.06915417053936707</v>
+        <v>0.09507061479997705</v>
       </c>
       <c r="D89">
-        <v>0.3284601680541042</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.348344584113217</v>
+      </c>
+      <c r="E89">
+        <v>-0.07211200665293079</v>
+      </c>
+      <c r="F89">
+        <v>0.08002451314629597</v>
+      </c>
+      <c r="G89">
+        <v>-0.01832224366409206</v>
+      </c>
+      <c r="H89">
+        <v>0.004050754802000555</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07605541438100202</v>
+        <v>0.07834984086500472</v>
       </c>
       <c r="C90">
-        <v>0.05680497353198063</v>
+        <v>0.07820651079221479</v>
       </c>
       <c r="D90">
-        <v>0.3120090366333341</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3036527444360202</v>
+      </c>
+      <c r="E90">
+        <v>-0.06633286629002907</v>
+      </c>
+      <c r="F90">
+        <v>0.003651536158427569</v>
+      </c>
+      <c r="G90">
+        <v>-0.003300961510660227</v>
+      </c>
+      <c r="H90">
+        <v>-0.002032710795208927</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08905015372709614</v>
+        <v>0.09115570437294043</v>
       </c>
       <c r="C91">
-        <v>0.05057841625867699</v>
+        <v>0.03068169626954631</v>
       </c>
       <c r="D91">
-        <v>-0.0252157401661905</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03168366166680826</v>
+      </c>
+      <c r="E91">
+        <v>-0.006567206994276922</v>
+      </c>
+      <c r="F91">
+        <v>0.003917159728942582</v>
+      </c>
+      <c r="G91">
+        <v>-0.05215218010286517</v>
+      </c>
+      <c r="H91">
+        <v>0.08408436829921452</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07687255947643132</v>
+        <v>0.07861223268082136</v>
       </c>
       <c r="C92">
-        <v>0.07217494988291384</v>
+        <v>0.09709287598629186</v>
       </c>
       <c r="D92">
-        <v>0.3361094176332148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3411584749445361</v>
+      </c>
+      <c r="E92">
+        <v>-0.03914826748741996</v>
+      </c>
+      <c r="F92">
+        <v>0.046261582250511</v>
+      </c>
+      <c r="G92">
+        <v>0.01762250354295319</v>
+      </c>
+      <c r="H92">
+        <v>0.01730703756700361</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06743286681060932</v>
+        <v>0.0754864432514515</v>
       </c>
       <c r="C93">
-        <v>0.06339889357554897</v>
+        <v>0.09061706786767482</v>
       </c>
       <c r="D93">
-        <v>0.3070204295200134</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3047466693668924</v>
+      </c>
+      <c r="E93">
+        <v>-0.02237218780854257</v>
+      </c>
+      <c r="F93">
+        <v>0.03638652990985845</v>
+      </c>
+      <c r="G93">
+        <v>0.01878993316035323</v>
+      </c>
+      <c r="H93">
+        <v>-0.01014356415880443</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.135729040409851</v>
+        <v>0.1289190208837938</v>
       </c>
       <c r="C94">
-        <v>0.04393906090349676</v>
+        <v>0.01357034179499904</v>
       </c>
       <c r="D94">
-        <v>-0.03929319831858859</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04651570395531694</v>
+      </c>
+      <c r="E94">
+        <v>0.01779775248522389</v>
+      </c>
+      <c r="F94">
+        <v>0.01247265881075261</v>
+      </c>
+      <c r="G94">
+        <v>-0.06622674369513515</v>
+      </c>
+      <c r="H94">
+        <v>0.0999978187611858</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1231518464095077</v>
+        <v>0.1288588413217817</v>
       </c>
       <c r="C95">
-        <v>0.02606705441271438</v>
+        <v>-0.0002053733796923638</v>
       </c>
       <c r="D95">
-        <v>-0.06493407295366771</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06645762335247603</v>
+      </c>
+      <c r="E95">
+        <v>-0.01114511603862412</v>
+      </c>
+      <c r="F95">
+        <v>0.03831624148239125</v>
+      </c>
+      <c r="G95">
+        <v>0.01350751279172343</v>
+      </c>
+      <c r="H95">
+        <v>-0.0413944180753744</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2206625268923485</v>
+        <v>0.2048551247834466</v>
       </c>
       <c r="C97">
-        <v>0.04013214472038423</v>
+        <v>-0.003992843496860166</v>
       </c>
       <c r="D97">
-        <v>0.1071161080891305</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08240179660157237</v>
+      </c>
+      <c r="E97">
+        <v>0.196759077015287</v>
+      </c>
+      <c r="F97">
+        <v>-0.9064906207161013</v>
+      </c>
+      <c r="G97">
+        <v>0.06767510219794978</v>
+      </c>
+      <c r="H97">
+        <v>0.01391851282529588</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.250047235889394</v>
+        <v>0.2759279109893414</v>
       </c>
       <c r="C98">
-        <v>0.05984914941532931</v>
+        <v>0.02247632206682488</v>
       </c>
       <c r="D98">
-        <v>-0.03214643074728027</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05160860765992688</v>
+      </c>
+      <c r="E98">
+        <v>0.1872480522945138</v>
+      </c>
+      <c r="F98">
+        <v>0.06661184887728407</v>
+      </c>
+      <c r="G98">
+        <v>-0.2323982116967268</v>
+      </c>
+      <c r="H98">
+        <v>-0.2563853058373772</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4018442205058548</v>
+        <v>0.2704218929846423</v>
       </c>
       <c r="C99">
-        <v>-0.898327377503105</v>
+        <v>-0.9308194797157738</v>
       </c>
       <c r="D99">
-        <v>0.05183650341163961</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1641393106316433</v>
+      </c>
+      <c r="E99">
+        <v>-0.07223269193379311</v>
+      </c>
+      <c r="F99">
+        <v>0.05901902362115653</v>
+      </c>
+      <c r="G99">
+        <v>-0.02345683210246941</v>
+      </c>
+      <c r="H99">
+        <v>0.07216531153413926</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04162699097199957</v>
+        <v>0.04881755629994795</v>
       </c>
       <c r="C101">
-        <v>0.02892193316725452</v>
+        <v>0.0262067174224765</v>
       </c>
       <c r="D101">
-        <v>-0.01158452355612633</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.008889518872192087</v>
+      </c>
+      <c r="E101">
+        <v>-0.06098867746931394</v>
+      </c>
+      <c r="F101">
+        <v>0.01098693102067503</v>
+      </c>
+      <c r="G101">
+        <v>-0.0085003418330296</v>
+      </c>
+      <c r="H101">
+        <v>0.07324767158280099</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
